--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>484.166339513851</v>
+        <v>1331.939237861951</v>
       </c>
       <c r="R2">
-        <v>4357.49705562466</v>
+        <v>11987.45314075756</v>
       </c>
       <c r="S2">
-        <v>0.002932544248872369</v>
+        <v>0.00399676788031868</v>
       </c>
       <c r="T2">
-        <v>0.002932544248872369</v>
+        <v>0.003996767880318679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>1712.788555077849</v>
+        <v>2847.210741944023</v>
       </c>
       <c r="R3">
-        <v>15415.09699570064</v>
+        <v>25624.8966774962</v>
       </c>
       <c r="S3">
-        <v>0.01037417890671904</v>
+        <v>0.008543663343206977</v>
       </c>
       <c r="T3">
-        <v>0.01037417890671904</v>
+        <v>0.008543663343206975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>669.8075446823564</v>
+        <v>1832.449040826415</v>
       </c>
       <c r="R4">
-        <v>6028.267902141209</v>
+        <v>16492.04136743773</v>
       </c>
       <c r="S4">
-        <v>0.00405695337057477</v>
+        <v>0.00549865433835569</v>
       </c>
       <c r="T4">
-        <v>0.004056953370574771</v>
+        <v>0.005498654338355689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>178.0445327727671</v>
+        <v>265.7485380250378</v>
       </c>
       <c r="R5">
-        <v>1602.400794954904</v>
+        <v>2391.73684222534</v>
       </c>
       <c r="S5">
-        <v>0.001078396881431716</v>
+        <v>0.0007974351913568325</v>
       </c>
       <c r="T5">
-        <v>0.001078396881431716</v>
+        <v>0.0007974351913568326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>502.697304374536</v>
+        <v>1008.272268591292</v>
       </c>
       <c r="R6">
-        <v>4524.275739370824</v>
+        <v>9074.45041732163</v>
       </c>
       <c r="S6">
-        <v>0.003044784340744148</v>
+        <v>0.003025536077899823</v>
       </c>
       <c r="T6">
-        <v>0.003044784340744148</v>
+        <v>0.003025536077899823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>495.6596287987182</v>
+        <v>1285.115213949144</v>
       </c>
       <c r="R7">
-        <v>4460.936659188465</v>
+        <v>11566.03692554229</v>
       </c>
       <c r="S7">
-        <v>0.003002157885018174</v>
+        <v>0.003856262405682773</v>
       </c>
       <c r="T7">
-        <v>0.003002157885018174</v>
+        <v>0.003856262405682773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>12957.30651103906</v>
+        <v>21443.15531954363</v>
       </c>
       <c r="R8">
-        <v>116615.7585993516</v>
+        <v>192988.3978758927</v>
       </c>
       <c r="S8">
-        <v>0.07848103345634801</v>
+        <v>0.06434476288228348</v>
       </c>
       <c r="T8">
-        <v>0.07848103345634802</v>
+        <v>0.06434476288228348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>45837.81334123186</v>
@@ -1013,10 +1013,10 @@
         <v>412540.3200710868</v>
       </c>
       <c r="S9">
-        <v>0.2776347815291879</v>
+        <v>0.1375461393872283</v>
       </c>
       <c r="T9">
-        <v>0.2776347815291879</v>
+        <v>0.1375461393872283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>17925.45443900587</v>
+        <v>29500.96241677215</v>
       </c>
       <c r="R10">
-        <v>161329.0899510528</v>
+        <v>265508.6617509493</v>
       </c>
       <c r="S10">
-        <v>0.1085725793666548</v>
+        <v>0.08852393237931183</v>
       </c>
       <c r="T10">
-        <v>0.1085725793666548</v>
+        <v>0.08852393237931183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>4764.845044923832</v>
+        <v>4278.338692056126</v>
       </c>
       <c r="R11">
-        <v>42883.60540431448</v>
+        <v>38505.04822850513</v>
       </c>
       <c r="S11">
-        <v>0.02886016187595718</v>
+        <v>0.01283806811862002</v>
       </c>
       <c r="T11">
-        <v>0.02886016187595718</v>
+        <v>0.01283806811862002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>13453.23398895147</v>
+        <v>16232.37625651551</v>
       </c>
       <c r="R12">
-        <v>121079.1059005633</v>
+        <v>146091.3863086396</v>
       </c>
       <c r="S12">
-        <v>0.08148481367508463</v>
+        <v>0.04870870847489287</v>
       </c>
       <c r="T12">
-        <v>0.08148481367508463</v>
+        <v>0.04870870847489287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>13264.89103298992</v>
+        <v>20689.32602395198</v>
       </c>
       <c r="R13">
-        <v>119384.0192969093</v>
+        <v>186203.9342155679</v>
       </c>
       <c r="S13">
-        <v>0.08034404033492376</v>
+        <v>0.06208273723560289</v>
       </c>
       <c r="T13">
-        <v>0.08034404033492377</v>
+        <v>0.06208273723560289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>2789.260253896845</v>
+        <v>17071.272987152</v>
       </c>
       <c r="R14">
-        <v>25103.34228507161</v>
+        <v>153641.4568843679</v>
       </c>
       <c r="S14">
-        <v>0.0168942539962332</v>
+        <v>0.05122599711134324</v>
       </c>
       <c r="T14">
-        <v>0.0168942539962332</v>
+        <v>0.05122599711134323</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>9867.296939322607</v>
+        <v>36492.28917206485</v>
       </c>
       <c r="R15">
-        <v>88805.67245390346</v>
+        <v>328430.6025485836</v>
       </c>
       <c r="S15">
-        <v>0.05976517268916549</v>
+        <v>0.1095029000544594</v>
       </c>
       <c r="T15">
-        <v>0.05976517268916549</v>
+        <v>0.1095029000544593</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>3858.730790782874</v>
+        <v>23486.23489852831</v>
       </c>
       <c r="R16">
-        <v>34728.57711704587</v>
+        <v>211376.1140867548</v>
       </c>
       <c r="S16">
-        <v>0.02337192378928961</v>
+        <v>0.07047545909281688</v>
       </c>
       <c r="T16">
-        <v>0.02337192378928961</v>
+        <v>0.07047545909281687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>1025.706452838832</v>
+        <v>3406.060659226683</v>
       </c>
       <c r="R17">
-        <v>9231.358075549486</v>
+        <v>30654.54593304015</v>
       </c>
       <c r="S17">
-        <v>0.006212595370268904</v>
+        <v>0.01022061176234019</v>
       </c>
       <c r="T17">
-        <v>0.006212595370268904</v>
+        <v>0.01022061176234019</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>2896.016299358756</v>
+        <v>12922.88015339704</v>
       </c>
       <c r="R18">
-        <v>26064.14669422881</v>
+        <v>116305.9213805734</v>
       </c>
       <c r="S18">
-        <v>0.0175408640589361</v>
+        <v>0.03877785926722454</v>
       </c>
       <c r="T18">
-        <v>0.0175408640589361</v>
+        <v>0.03877785926722453</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>2855.472570558527</v>
+        <v>16471.13623027142</v>
       </c>
       <c r="R19">
-        <v>25699.25313502675</v>
+        <v>148240.2260724427</v>
       </c>
       <c r="S19">
-        <v>0.01729529498686815</v>
+        <v>0.04942515872058512</v>
       </c>
       <c r="T19">
-        <v>0.01729529498686815</v>
+        <v>0.04942515872058511</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>1376.38099667713</v>
+        <v>667.567437952432</v>
       </c>
       <c r="R20">
-        <v>12387.42897009417</v>
+        <v>6008.106941571888</v>
       </c>
       <c r="S20">
-        <v>0.00833659394850861</v>
+        <v>0.002003178537061351</v>
       </c>
       <c r="T20">
-        <v>0.008336593948508612</v>
+        <v>0.002003178537061351</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>4869.09028186952</v>
+        <v>1427.02093780288</v>
       </c>
       <c r="R21">
-        <v>43821.81253682569</v>
+        <v>12843.18844022592</v>
       </c>
       <c r="S21">
-        <v>0.029491564237353</v>
+        <v>0.004282080808662181</v>
       </c>
       <c r="T21">
-        <v>0.02949156423735301</v>
+        <v>0.004282080808662181</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>1904.119102656844</v>
+        <v>918.4227602803519</v>
       </c>
       <c r="R22">
-        <v>17137.0719239116</v>
+        <v>8265.804842523168</v>
       </c>
       <c r="S22">
-        <v>0.01153304777294333</v>
+        <v>0.002755923456939697</v>
       </c>
       <c r="T22">
-        <v>0.01153304777294333</v>
+        <v>0.002755923456939697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>506.142396674572</v>
+        <v>133.193065889216</v>
       </c>
       <c r="R23">
-        <v>4555.281570071148</v>
+        <v>1198.737593002944</v>
       </c>
       <c r="S23">
-        <v>0.003065650899996179</v>
+        <v>0.0003996742137289319</v>
       </c>
       <c r="T23">
-        <v>0.00306565089999618</v>
+        <v>0.000399674213728932</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>1429.060552860132</v>
+        <v>505.345676415712</v>
       </c>
       <c r="R24">
-        <v>12861.54497574119</v>
+        <v>4548.111087741408</v>
       </c>
       <c r="S24">
-        <v>0.008655668441941444</v>
+        <v>0.001516397528162296</v>
       </c>
       <c r="T24">
-        <v>0.008655668441941445</v>
+        <v>0.001516397528162296</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>1409.053951548152</v>
+        <v>644.0992550282078</v>
       </c>
       <c r="R25">
-        <v>12681.48556393337</v>
+        <v>5796.893295253872</v>
       </c>
       <c r="S25">
-        <v>0.008534490576342939</v>
+        <v>0.0019327572467692</v>
       </c>
       <c r="T25">
-        <v>0.008534490576342943</v>
+        <v>0.0019327572467692</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>1129.351835820956</v>
+        <v>1804.28925889377</v>
       </c>
       <c r="R26">
-        <v>10164.1665223886</v>
+        <v>16238.60333004392</v>
       </c>
       <c r="S26">
-        <v>0.006840364479727425</v>
+        <v>0.005414154904187929</v>
       </c>
       <c r="T26">
-        <v>0.006840364479727426</v>
+        <v>0.005414154904187929</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>3995.199048724769</v>
+        <v>3856.926512460778</v>
       </c>
       <c r="R27">
-        <v>35956.79143852292</v>
+        <v>34712.338612147</v>
       </c>
       <c r="S27">
-        <v>0.02419849757668461</v>
+        <v>0.0115735309566355</v>
       </c>
       <c r="T27">
-        <v>0.02419849757668461</v>
+        <v>0.0115735309566355</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>1562.37292537373</v>
+        <v>2482.296510117505</v>
       </c>
       <c r="R28">
-        <v>14061.35632836357</v>
+        <v>22340.66859105755</v>
       </c>
       <c r="S28">
-        <v>0.009463127365481707</v>
+        <v>0.007448660328522494</v>
       </c>
       <c r="T28">
-        <v>0.009463127365481709</v>
+        <v>0.007448660328522494</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>415.3013200932291</v>
+        <v>359.9918217703222</v>
       </c>
       <c r="R29">
-        <v>3737.711880839062</v>
+        <v>3239.9263959329</v>
       </c>
       <c r="S29">
-        <v>0.002515436118527732</v>
+        <v>0.001080232273011658</v>
       </c>
       <c r="T29">
-        <v>0.002515436118527732</v>
+        <v>0.001080232273011658</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>1172.576606890258</v>
+        <v>1365.839200878228</v>
       </c>
       <c r="R30">
-        <v>10553.18946201232</v>
+        <v>12292.55280790405</v>
       </c>
       <c r="S30">
-        <v>0.007102172340917</v>
+        <v>0.004098491952615655</v>
       </c>
       <c r="T30">
-        <v>0.007102172340917</v>
+        <v>0.004098491952615655</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>1156.16073659361</v>
+        <v>1740.859876379536</v>
       </c>
       <c r="R31">
-        <v>10405.44662934249</v>
+        <v>15667.73888741582</v>
       </c>
       <c r="S31">
-        <v>0.007002743152847035</v>
+        <v>0.005223821507967634</v>
       </c>
       <c r="T31">
-        <v>0.007002743152847035</v>
+        <v>0.005223821507967634</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>1034.289521850364</v>
+        <v>9471.289124423827</v>
       </c>
       <c r="R32">
-        <v>9308.605696653278</v>
+        <v>85241.60211981444</v>
       </c>
       <c r="S32">
-        <v>0.006264582110389495</v>
+        <v>0.02842062391560254</v>
       </c>
       <c r="T32">
-        <v>0.006264582110389496</v>
+        <v>0.02842062391560254</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>3658.906270603235</v>
+        <v>20246.23599076829</v>
       </c>
       <c r="R33">
-        <v>32930.15643542913</v>
+        <v>182216.1239169146</v>
       </c>
       <c r="S33">
-        <v>0.02216160783047084</v>
+        <v>0.06075315104850277</v>
       </c>
       <c r="T33">
-        <v>0.02216160783047084</v>
+        <v>0.06075315104850277</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>1430.861397380274</v>
+        <v>13030.36518339955</v>
       </c>
       <c r="R34">
-        <v>12877.75257642246</v>
+        <v>117273.286650596</v>
       </c>
       <c r="S34">
-        <v>0.008666575966504091</v>
+        <v>0.03910039103392787</v>
       </c>
       <c r="T34">
-        <v>0.008666575966504093</v>
+        <v>0.03910039103392787</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>380.3436539072924</v>
+        <v>1889.711757473538</v>
       </c>
       <c r="R35">
-        <v>3423.092885165632</v>
+        <v>17007.40581726185</v>
       </c>
       <c r="S35">
-        <v>0.002303701236192658</v>
+        <v>0.005670483337854491</v>
       </c>
       <c r="T35">
-        <v>0.002303701236192658</v>
+        <v>0.005670483337854492</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>1073.875881373888</v>
+        <v>7169.725089934336</v>
       </c>
       <c r="R36">
-        <v>9664.882932364992</v>
+        <v>64527.52580940903</v>
       </c>
       <c r="S36">
-        <v>0.006504352498126626</v>
+        <v>0.02151428994325832</v>
       </c>
       <c r="T36">
-        <v>0.006504352498126626</v>
+        <v>0.02151428994325832</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>1058.841804214457</v>
+        <v>9138.328088484217</v>
       </c>
       <c r="R37">
-        <v>9529.576237930112</v>
+        <v>82244.95279635796</v>
       </c>
       <c r="S37">
-        <v>0.006413292684767312</v>
+        <v>0.02742150328305985</v>
       </c>
       <c r="T37">
-        <v>0.006413292684767313</v>
+        <v>0.02742150328305985</v>
       </c>
     </row>
   </sheetData>
